--- a/medicine/Enfance/L'Odyssée_du_Passeur_d'Aurore/L'Odyssée_du_Passeur_d'Aurore.xlsx
+++ b/medicine/Enfance/L'Odyssée_du_Passeur_d'Aurore/L'Odyssée_du_Passeur_d'Aurore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Odyss%C3%A9e_du_Passeur_d%27Aurore</t>
+          <t>L'Odyssée_du_Passeur_d'Aurore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Odyssée du Passeur d'Aurore (en anglais : The Voyage of the Dawn Treader) est un roman fantastique pour la jeunesse de Clive Staples Lewis, publié en 1952. C'est le troisième tome publié dans la série Le Monde de Narnia, qui en compte sept, mais dans l'ordre de lecture, c'est le cinquième. Il voit apparaître un nouveau protagoniste, Eustache.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Odyss%C3%A9e_du_Passeur_d%27Aurore</t>
+          <t>L'Odyssée_du_Passeur_d'Aurore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucy, Edmund et leur cousin Eustache Clarence-Scrubb sont transportés à Narnia par l'intermédiaire d'un tableau magique. Sur un navire baptisé le Passeur d'Aurore, ils se dirigent vers l'est, avec le roi Caspian, à la recherche de sept seigneurs disparus. En même temps, ils veulent aller voir le bout-du-monde et le pays d'Aslan. Ripitchip (une souris parlante de l'équipage de Caspian) ira jusqu'au pays d'Aslan tout seul pour lever le sortilège qui a plongé trois seigneurs de Narnia dans un sommeil éternel. En cours de route, Eustache fera quelques bêtises qui compliqueront la vie de l'équipage.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Odyss%C3%A9e_du_Passeur_d%27Aurore</t>
+          <t>L'Odyssée_du_Passeur_d'Aurore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Liste des chapitres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un tableau sur le mur
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Odyss%C3%A9e_du_Passeur_d%27Aurore</t>
+          <t>L'Odyssée_du_Passeur_d'Aurore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1984 : Le Voyage de la "Belle Aurore" ; traduit par Michel Baron, illustré par Pauline Baynes, Collection : Bibliothèque du chat perché, Paris : Flammarion, 246 p. (BNF 34746299)  (ISBN 2-08-091762-5)
 2002 : L'Odyssée du Passeur d'Aurore ; traduit par Philippe Morgaut, illustré par Pauline Baynes, Collection : Folio junior no 1210, Paris] : Gallimard jeunesse, 260 p. (BNF 38878231)  (ISBN 2-07-054941-0)
